--- a/単体テストver.2.xlsx
+++ b/単体テストver.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\workspace-temma\Programming-exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACA0B7A-8442-4E65-912F-63C5181B5E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BB2256-6CC0-4582-98B6-D0B36F203386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8445" yWindow="7860" windowWidth="38400" windowHeight="12390" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9780" yWindow="4530" windowWidth="38400" windowHeight="12405" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index.php" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="91">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -723,6 +723,20 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>error.phpに遷移する</t>
+  </si>
+  <si>
+    <t>データベースがダウンしている状態でアクセスする</t>
+    <rPh sb="14" eb="16">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースエラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -6561,7 +6575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
@@ -8165,8 +8179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1188509A-4C8B-4228-99D9-FAC7657AD336}">
   <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:H21"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -9626,7 +9640,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -10882,8 +10896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E094EFEA-35E1-4811-9757-A1A93E3E42AB}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -11095,16 +11109,28 @@
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+      <c r="A13" s="18">
         <v>7</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
+      <c r="B13" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="26">
+        <v>45187</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
